--- a/data_voor_swing/aggregatietabellen/gemeente2018_arrondiss2018.xlsx
+++ b/data_voor_swing/aggregatietabellen/gemeente2018_arrondiss2018.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B331"/>
+  <dimension ref="A1:B332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3034,9 +3034,17 @@
     </row>
     <row r="331" spans="1:2" s="0" outlineLevel="0">
       <c r="A331" s="23">
+        <v>99993</v>
+      </c>
+      <c r="B331" s="1" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" s="0" outlineLevel="0">
+      <c r="A332" s="23">
         <v>99999</v>
       </c>
-      <c r="B331" s="23">
+      <c r="B332" s="23">
         <v>99999</v>
       </c>
     </row>
